--- a/layers.dot.xlsx
+++ b/layers.dot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/connorz_oregonstate_edu/Documents/Research/AFBM/AFBM Code/AFBMGit/AFBM-MLC-PointNet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{20628217-5FD7-4136-A2D6-277D2CADE7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7870C9A-41B9-4CC6-8881-041FF0DD6576}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{20628217-5FD7-4136-A2D6-277D2CADE7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495AFBE4-9562-4A23-9037-C7EA0DE4657E}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{C4314F44-2193-4CE2-BF79-7D2585060966}"/>
+    <workbookView minimized="1" xWindow="13095" yWindow="1035" windowWidth="13785" windowHeight="11295" activeTab="1" xr2:uid="{C4314F44-2193-4CE2-BF79-7D2585060966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
